--- a/Data/Polygon data.xlsx
+++ b/Data/Polygon data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cardinalnewmanac-my.sharepoint.com/personal/t0078915_cardinalnewman_ac_uk/Documents/Computer Science/NEA/Game1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{0B3370AE-B3F4-4472-86BC-A3D1B005A1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7B113C3-C097-4B7C-84F5-800BDC4B5E4F}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{0B3370AE-B3F4-4472-86BC-A3D1B005A1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42828832-0C0C-40D6-B0CF-61347B8309DB}"/>
   <bookViews>
-    <workbookView xWindow="2388" yWindow="3072" windowWidth="10332" windowHeight="7260" xr2:uid="{9701B44F-B033-4E19-ACB0-5A4241093369}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9701B44F-B033-4E19-ACB0-5A4241093369}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D1D549-5418-42E8-9057-B6DC1CE3AB0A}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,7 +755,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B33">
         <v>130</v>
@@ -766,10 +766,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B34">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>270</v>
       </c>
       <c r="B35">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B39">
         <v>25</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B40">
         <v>-20</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B51">
         <v>-30</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B52">
         <v>-105</v>
